--- a/analysis/outputs/comparison/PairedComparison.xlsx
+++ b/analysis/outputs/comparison/PairedComparison.xlsx
@@ -560,8 +560,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC81385C0B40A6489A519227AC58B4E3" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24713abe6f468ae78b1359f05fee25a2">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc6bf495-21ae-404b-8e97-66fa0caa1a05" xmlns:ns3="cfd2c1a7-302c-4066-90c5-ace2b1db410b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="efff4f72da2b898e833fd8fdee074f46" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EC81385C0B40A6489A519227AC58B4E3" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e6de73cdc9f2b7a585f5c1b914769162">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bc6bf495-21ae-404b-8e97-66fa0caa1a05" xmlns:ns3="cfd2c1a7-302c-4066-90c5-ace2b1db410b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e850a417b32712145bcb0f8f81b3f16b" ns2:_="" ns3:_="">
     <xsd:import namespace="bc6bf495-21ae-404b-8e97-66fa0caa1a05"/>
     <xsd:import namespace="cfd2c1a7-302c-4066-90c5-ace2b1db410b"/>
     <xsd:element name="properties">
@@ -585,6 +585,7 @@
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -660,6 +661,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cfd2c1a7-302c-4066-90c5-ace2b1db410b" elementFormDefault="qualified">
@@ -811,10 +817,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cfd2c1a7-302c-4066-90c5-ace2b1db410b" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bc6bf495-21ae-404b-8e97-66fa0caa1a05">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DEE5A91-A6B2-4888-A0CB-4C99AF488A50}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFFDB3E1-4166-4432-BB1D-D3BE86B08ACA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5D2A5F23-0D8D-44D6-8952-A5E7C0D993A2}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37CC272D-0B47-42E2-BD26-9825E0672AA7}"/>
 </file>